--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/PDX/SA-Y3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B04917-EB83-F744-9E05-24951B6B751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E434D9F-CA06-B841-A98B-B2A51BB7F73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="19300" windowHeight="11680" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19860" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>patient_id</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>CRC0228PR</t>
   </si>
   <si>
     <t>host_strain_name</t>
@@ -321,9 +318,6 @@
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>http://tumor.informatics.jax.org/mtbwi/pdxDetails.do?modelID=TM01220</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -378,98 +372,20 @@
     <t>https://tumor.informatics.jax.org</t>
   </si>
   <si>
-    <t>CRC001asdas4LM</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>ACH-000884,CVCL_0622,CCLE_Name:MDAMB435S_SKIN</t>
-  </si>
-  <si>
     <t>DSMZ:ACC-500</t>
   </si>
   <si>
-    <t>RIKEN:RCB0803</t>
-  </si>
-  <si>
     <t>Adherent</t>
   </si>
   <si>
-    <t>Suspension</t>
-  </si>
-  <si>
-    <t>cell line</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>histo</t>
-  </si>
-  <si>
-    <t>CRC0s228PR</t>
-  </si>
-  <si>
-    <t>NOD</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t>PMID: 27771609</t>
-  </si>
-  <si>
-    <t>RH0000000000D01000</t>
-  </si>
-  <si>
-    <t>Sep 2015</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>pre-malignant</t>
-  </si>
-  <si>
-    <t>CRC0228PRaS</t>
-  </si>
-  <si>
-    <t>SADASD</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>heterotopic</t>
-  </si>
-  <si>
     <t>MEC-1 and MEC-2 were both established from the same patient</t>
-  </si>
-  <si>
-    <t>MSI Status</t>
-  </si>
-  <si>
-    <t>j.doe@example.com, j.doe@example.com</t>
-  </si>
-  <si>
-    <t>not provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -585,12 +501,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -689,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -788,8 +698,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1173,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ110"/>
+  <dimension ref="A1:AMJ109"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1228,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -1237,27 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
@@ -1364,7 +1252,6 @@
     <row r="107" ht="15.75" customHeight="1"/>
     <row r="108" ht="15.75" customHeight="1"/>
     <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1373,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ977"/>
+  <dimension ref="A1:AMJ976"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1475,7 +1362,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -1508,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>41</v>
@@ -1523,57 +1410,10 @@
         <v>42</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1"/>
@@ -2547,7 +2387,6 @@
     <row r="974" ht="15.75" customHeight="1"/>
     <row r="975" ht="15.75" customHeight="1"/>
     <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -2556,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ979"/>
+  <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2581,88 +2420,60 @@
         <v>31</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:9" ht="15.75" customHeight="1"/>
@@ -3638,7 +3449,6 @@
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
     <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -3647,10 +3457,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3666,50 +3476,33 @@
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3720,10 +3513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3733,104 +3526,76 @@
         <v>31</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="102">
       <c r="A2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="102">
-      <c r="A3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3839,10 +3604,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMI4"/>
+  <dimension ref="A1:AMI3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3862,22 +3627,22 @@
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="AMF1"/>
       <c r="AMG1"/>
@@ -3886,60 +3651,40 @@
     </row>
     <row r="2" spans="1:1023" ht="34">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="3" spans="1:1023" ht="170.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1023">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+    <row r="3" spans="1:1023">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{BC2CA13D-1C6D-834C-B24A-C97624CD603F}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{B822DC68-718C-6C4E-895E-43E2C2099688}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{DA4D891B-E239-834D-84D4-25045D2322B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/set-aside/sa-y3/pdcm-submission/website/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E434D9F-CA06-B841-A98B-B2A51BB7F73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42231ED9-6724-314A-AFA4-76B8557A95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19860" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10820" windowWidth="33520" windowHeight="9760" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
   <si>
     <t>patient_id</t>
   </si>
@@ -267,9 +267,6 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t xml:space="preserve">PMID: 27771609, PMID: 27771610 </t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>organoid</t>
-  </si>
-  <si>
     <t>transnational access</t>
   </si>
   <si>
@@ -372,20 +366,140 @@
     <t>https://tumor.informatics.jax.org</t>
   </si>
   <si>
-    <t>DSMZ:ACC-500</t>
-  </si>
-  <si>
-    <t>Adherent</t>
-  </si>
-  <si>
-    <t>MEC-1 and MEC-2 were both established from the same patient</t>
+    <t>supplier_type</t>
+  </si>
+  <si>
+    <t>catalog_number</t>
+  </si>
+  <si>
+    <t>vendor_link</t>
+  </si>
+  <si>
+    <t>morphological_features</t>
+  </si>
+  <si>
+    <t>SNP_analysis</t>
+  </si>
+  <si>
+    <t>STR_analysis</t>
+  </si>
+  <si>
+    <t>tumour_status</t>
+  </si>
+  <si>
+    <t>model_purity</t>
+  </si>
+  <si>
+    <t>collection_method</t>
+  </si>
+  <si>
+    <t>gene_mutation_status</t>
+  </si>
+  <si>
+    <t>response_to_treatment</t>
+  </si>
+  <si>
+    <t>age_category</t>
+  </si>
+  <si>
+    <t>smoking_status</t>
+  </si>
+  <si>
+    <t>alcohol_status</t>
+  </si>
+  <si>
+    <t>alcohol_frequency</t>
+  </si>
+  <si>
+    <t>family_history_of_cancer</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>model_name_aliases</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>growth_media</t>
+  </si>
+  <si>
+    <t>plate_coating</t>
+  </si>
+  <si>
+    <t>other_plate_coating</t>
+  </si>
+  <si>
+    <t>contaminated</t>
+  </si>
+  <si>
+    <t>contamination_details</t>
+  </si>
+  <si>
+    <t>supplements</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>drug_concentration</t>
+  </si>
+  <si>
+    <t>rrid</t>
+  </si>
+  <si>
+    <t>A 549</t>
+  </si>
+  <si>
+    <t>organoid, CRC, 3-D other, cell model</t>
+  </si>
+  <si>
+    <t>embedded 3d culture</t>
+  </si>
+  <si>
+    <t>MF-002-001</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>mycoplasma</t>
+  </si>
+  <si>
+    <t>10% R-spondin, 10% Noggin, 10% FBS</t>
+  </si>
+  <si>
+    <t>EGF</t>
+  </si>
+  <si>
+    <t>50ng/ml</t>
+  </si>
+  <si>
+    <t>DSMZ:ACC-497</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>CCL-185</t>
+  </si>
+  <si>
+    <t>https://www.atcc.org/products/ccl-185</t>
+  </si>
+  <si>
+    <t>CVCL_0023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -454,24 +568,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF4A86E8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -493,12 +593,6 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -597,9 +691,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -658,46 +752,27 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,9 +860,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -825,7 +900,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -931,7 +1006,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1073,7 +1148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ109"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1099,7 +1174,7 @@
     <col min="8" max="1024" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1196,23 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="29" customHeight="1">
+    <row r="2" spans="1:12" ht="29" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -1145,20 +1235,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1263,7 +1353,7 @@
   <dimension ref="A1:AMJ976"/>
   <sheetViews>
     <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1289,7 +1379,7 @@
     <col min="21" max="1024" width="11.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="49" customHeight="1">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="49" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1320,38 +1410,47 @@
       <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="64.25" customHeight="1">
+    <row r="2" spans="1:23" ht="64.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1461,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -1395,38 +1494,38 @@
         <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="T2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2397,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2415,7 +2514,7 @@
     <col min="10" max="1024" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="44" customHeight="1">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2440,11 +2539,32 @@
       <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="L1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:16" ht="68">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -2467,26 +2587,26 @@
         <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3459,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3471,35 +3591,53 @@
     <col min="6" max="1024" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37" customHeight="1">
+    <row r="1" spans="1:11" ht="37" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34">
+    <row r="2" spans="1:11" ht="34">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>53</v>
@@ -3513,91 +3651,182 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:25" ht="17">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:25" ht="85">
+      <c r="A2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="C2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="20">
+        <v>20</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="102">
-      <c r="A2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
+    <row r="3" spans="1:25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{224C4855-B899-D14E-A9D5-CA901E8DE33A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3627,22 +3856,22 @@
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="AMF1"/>
       <c r="AMG1"/>
@@ -3654,22 +3883,22 @@
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1023">

--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/set-aside/sa-y3/pdcm-submission/website/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42231ED9-6724-314A-AFA4-76B8557A95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895533B-671C-C246-9BA8-DE7385E02493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10820" windowWidth="33520" windowHeight="9760" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1140" yWindow="3460" windowWidth="33520" windowHeight="9760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>patient_id</t>
   </si>
@@ -453,9 +453,6 @@
     <t>A 549</t>
   </si>
   <si>
-    <t>organoid, CRC, 3-D other, cell model</t>
-  </si>
-  <si>
     <t>embedded 3d culture</t>
   </si>
   <si>
@@ -483,9 +480,6 @@
     <t>DSMZ:ACC-497</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
     <t>CCL-185</t>
   </si>
   <si>
@@ -493,13 +487,25 @@
   </si>
   <si>
     <t>CVCL_0023</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>organoid</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>academic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -592,6 +598,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -693,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -772,6 +784,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1352,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ976"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -2496,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2591,6 +2606,15 @@
       </c>
       <c r="K2" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1"/>
@@ -3653,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3747,7 +3771,7 @@
         <v>118</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>51</v>
@@ -3756,19 +3780,19 @@
         <v>81</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>123</v>
-      </c>
       <c r="K2" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L2" s="20">
         <v>20</v>
@@ -3777,39 +3801,41 @@
         <v>41</v>
       </c>
       <c r="N2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>57</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="W2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="X2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="21"/>

--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/set-aside/sa-y3/pdcm-submission/website/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895533B-671C-C246-9BA8-DE7385E02493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3424BCC-8C3E-EC46-BA7E-2530FF9143D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1140" yWindow="3460" windowWidth="33520" windowHeight="9760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="33520" windowHeight="9760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
   <si>
     <t>patient_id</t>
   </si>
@@ -500,12 +500,24 @@
   <si>
     <t>academic</t>
   </si>
+  <si>
+    <t>date_submitted</t>
+  </si>
+  <si>
+    <t>model_availability</t>
+  </si>
+  <si>
+    <t>21/12/2024</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -607,6 +619,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -705,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -787,6 +806,9 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2511,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3859,10 +3881,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMI3"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3870,14 +3892,15 @@
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="7" width="27.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
-    <col min="9" max="1019" width="11.1640625" style="1" customWidth="1"/>
-    <col min="1020" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="4" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="1" customWidth="1"/>
+    <col min="11" max="1021" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1022" max="1026" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="3" customFormat="1" ht="34">
+    <row r="1" spans="1:1025" s="3" customFormat="1" ht="34">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3887,24 +3910,30 @@
       <c r="C1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AMF1"/>
-      <c r="AMG1"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
+      <c r="AMJ1"/>
+      <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:1023" ht="34">
+    <row r="2" spans="1:1025" ht="34">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -3915,31 +3944,47 @@
         <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1023">
+    <row r="3" spans="1:1025">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:1025">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:1025">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{BC2CA13D-1C6D-834C-B24A-C97624CD603F}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{B822DC68-718C-6C4E-895E-43E2C2099688}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{BC2CA13D-1C6D-834C-B24A-C97624CD603F}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{B822DC68-718C-6C4E-895E-43E2C2099688}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/set-aside/sa-y3/pdcm-submission/website/static/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3424BCC-8C3E-EC46-BA7E-2530FF9143D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B724D88D-D196-5C4C-9A30-C5C81C480B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3460" windowWidth="33520" windowHeight="9760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
   <si>
     <t>patient_id</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>available</t>
+  </si>
+  <si>
+    <t>CRC0014LM_Cell</t>
+  </si>
+  <si>
+    <t>CRC0228PRH0000000000D01000_cell</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ976"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1549,7 +1555,68 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:23" ht="64.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:23" ht="15.75" customHeight="1"/>
@@ -2533,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3625,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3700,7 +3767,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3783,8 +3850,8 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="85">
-      <c r="A2" s="20" t="s">
-        <v>51</v>
+      <c r="A2" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>80</v>
@@ -3883,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3962,16 +4029,34 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1025">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+    <row r="3" spans="1:1025" ht="34">
+      <c r="A3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:1025">
       <c r="D4" s="28"/>
@@ -3985,6 +4070,8 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{BC2CA13D-1C6D-834C-B24A-C97624CD603F}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{B822DC68-718C-6C4E-895E-43E2C2099688}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{83F83765-3C75-9949-A182-23CA1F6695BE}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{69AF9390-6EB9-0E41-826A-3AF934279D5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/set-aside/sa-y3/pdcm-submission/website/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B724D88D-D196-5C4C-9A30-C5C81C480B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F70BEB-6EF4-E14B-B2D6-5DCDA57D2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
   <si>
     <t>patient_id</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>CRC0228PRH0000000000D01000_cell</t>
+  </si>
+  <si>
+    <t>Not provided</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ109"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -1395,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ976"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
@@ -2600,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3690,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3756,6 +3759,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="17">
+      <c r="A3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3766,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6038AA-9EAD-E846-B5BE-A0ADCFA2926F}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/website/static/assets/validation_example-clean.xlsx
+++ b/website/static/assets/validation_example-clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/CancerModels/set-aside/sa-y3/pdcm-submission/website/static/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F70BEB-6EF4-E14B-B2D6-5DCDA57D2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7D125-EA20-154E-A9CF-BE02915521E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="146">
   <si>
     <t>patient_id</t>
   </si>
@@ -521,12 +521,24 @@
   <si>
     <t>Not provided</t>
   </si>
+  <si>
+    <t>CRC0014LM_Cell2</t>
+  </si>
+  <si>
+    <t>CRC0014</t>
+  </si>
+  <si>
+    <t>CRC0228PRH0000000000D01000_cell2</t>
+  </si>
+  <si>
+    <t>CRC0228PRH0000000000D010002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -545,22 +557,6 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF274E13"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -602,20 +598,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF274E13"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -627,13 +609,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -731,9 +706,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -747,13 +722,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,7 +734,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,35 +758,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,31 +1352,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ976"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="29" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="73.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" style="7" customWidth="1"/>
-    <col min="16" max="18" width="31.83203125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="26.1640625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" style="7" customWidth="1"/>
-    <col min="21" max="1024" width="11.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="73.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="34.33203125" style="5" customWidth="1"/>
+    <col min="16" max="18" width="31.83203125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="26.1640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="28.83203125" style="5" customWidth="1"/>
+    <col min="21" max="1024" width="11.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="49" customHeight="1">
@@ -1432,16 +1386,16 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1459,16 +1413,16 @@
       <c r="K1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1503,16 +1457,16 @@
       <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1527,16 +1481,16 @@
       <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -1548,7 +1502,7 @@
       <c r="S2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="13" t="s">
         <v>42</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -1565,16 +1519,16 @@
       <c r="B3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1589,16 +1543,16 @@
       <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -1610,7 +1564,7 @@
       <c r="S3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -1620,8 +1574,130 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="8" spans="1:23" ht="15.75" customHeight="1"/>
@@ -2603,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ978"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2625,49 +2701,49 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2675,22 +2751,22 @@
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2699,17 +2775,48 @@
       <c r="K2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="21" t="s">
         <v>134</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:16" ht="17">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:16" ht="15.75" customHeight="1"/>
@@ -3693,10 +3800,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3763,16 +3870,68 @@
       <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3787,82 +3946,82 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:25" ht="17">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="17" t="s">
         <v>79</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -3873,90 +4032,135 @@
       <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="18">
         <v>20</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="18" t="s">
         <v>130</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23"/>
+    <row r="3" spans="1:25" ht="85">
+      <c r="A3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="18">
+        <v>20</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3971,7 +4175,7 @@
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3994,10 +4198,10 @@
       <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4009,10 +4213,10 @@
       <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>70</v>
       </c>
       <c r="AMH1"/>
@@ -4042,10 +4246,10 @@
       <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4071,27 +4275,81 @@
       <c r="G3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1025">
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+    <row r="4" spans="1:1025" ht="34">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:1025">
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
+    <row r="5" spans="1:1025" ht="34">
+      <c r="A5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{BC2CA13D-1C6D-834C-B24A-C97624CD603F}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{B822DC68-718C-6C4E-895E-43E2C2099688}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{83F83765-3C75-9949-A182-23CA1F6695BE}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{69AF9390-6EB9-0E41-826A-3AF934279D5C}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{69AF9390-6EB9-0E41-826A-3AF934279D5C}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{83F83765-3C75-9949-A182-23CA1F6695BE}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{5098623D-D1E6-154C-B893-21B6291CB479}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{43EF57B3-5DFD-F94A-B663-E15773AEDB9B}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{8996D34B-CA14-FD43-BE2C-925DDF7C138F}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{D3FE61F5-90CD-174B-A5F2-8A2E1A7FBCED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
